--- a/ProfilesAutoDrawing/bin/Debug/DataSources/测试数据模版.xlsx
+++ b/ProfilesAutoDrawing/bin/Debug/DataSources/测试数据模版.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\古小兵\SW图号到模型资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix.zhu\Desktop\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF97F50-9CE3-46E1-A70C-CC51F47C8C22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="335"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>U</t>
   </si>
@@ -182,17 +183,48 @@
   </si>
   <si>
     <t>前右X2</t>
+  </si>
+  <si>
+    <t>E150-2000</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>UQ</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>U400-2700</t>
+  </si>
+  <si>
+    <t>U150-1600</t>
+  </si>
+  <si>
+    <t>U150(50)-K(200)1600</t>
+  </si>
+  <si>
+    <t>U150-R(200)2700</t>
+  </si>
+  <si>
+    <t>U200-R(150)2600</t>
+  </si>
+  <si>
+    <t>U150-K(200,500,600,500)2700</t>
+  </si>
+  <si>
+    <t>U200(80)-K(200,500,600,500)2700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +238,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,13 +249,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -600,37 +625,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="46" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="46" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -770,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -877,7 +902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -968,31 +993,915 @@
       <c r="AI3">
         <v>50</v>
       </c>
-      <c r="AJ3">
-        <v>50</v>
-      </c>
       <c r="AK3">
         <v>50</v>
       </c>
-      <c r="AL3">
-        <v>50</v>
-      </c>
       <c r="AM3">
         <v>50</v>
       </c>
-      <c r="AN3">
-        <v>50</v>
-      </c>
       <c r="AO3">
         <v>50</v>
       </c>
-      <c r="AP3">
-        <v>50</v>
-      </c>
     </row>
-    <row r="4" spans="1:46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>50</v>
+      </c>
+      <c r="AB4">
+        <v>50</v>
+      </c>
+      <c r="AC4">
+        <v>50</v>
+      </c>
+      <c r="AD4">
+        <v>50</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>50</v>
+      </c>
+      <c r="AR4">
+        <v>50</v>
+      </c>
+      <c r="AS4">
+        <v>50</v>
+      </c>
+      <c r="AT4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2700</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>50</v>
+      </c>
+      <c r="AB5">
+        <v>50</v>
+      </c>
+      <c r="AC5">
+        <v>50</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>50</v>
+      </c>
+      <c r="AF5">
+        <v>50</v>
+      </c>
+      <c r="AG5">
+        <v>50</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>50</v>
+      </c>
+      <c r="AJ5">
+        <v>50</v>
+      </c>
+      <c r="AK5">
+        <v>50</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>50</v>
+      </c>
+      <c r="AN5">
+        <v>50</v>
+      </c>
+      <c r="AO5">
+        <v>50</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1600</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>65</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>50</v>
+      </c>
+      <c r="AB6">
+        <v>50</v>
+      </c>
+      <c r="AC6">
+        <v>50</v>
+      </c>
+      <c r="AD6">
+        <v>50</v>
+      </c>
+      <c r="AE6">
+        <v>50</v>
+      </c>
+      <c r="AF6">
+        <v>50</v>
+      </c>
+      <c r="AG6">
+        <v>50</v>
+      </c>
+      <c r="AH6">
+        <v>50</v>
+      </c>
+      <c r="AI6">
+        <v>50</v>
+      </c>
+      <c r="AK6">
+        <v>50</v>
+      </c>
+      <c r="AM6">
+        <v>50</v>
+      </c>
+      <c r="AO6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1600</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>65</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>200</v>
+      </c>
+      <c r="N7">
+        <v>600</v>
+      </c>
+      <c r="O7">
+        <v>600</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>50</v>
+      </c>
+      <c r="AB7">
+        <v>50</v>
+      </c>
+      <c r="AC7">
+        <v>50</v>
+      </c>
+      <c r="AD7">
+        <v>50</v>
+      </c>
+      <c r="AE7">
+        <v>50</v>
+      </c>
+      <c r="AF7">
+        <v>50</v>
+      </c>
+      <c r="AG7">
+        <v>50</v>
+      </c>
+      <c r="AH7">
+        <v>50</v>
+      </c>
+      <c r="AI7">
+        <v>50</v>
+      </c>
+      <c r="AK7">
+        <v>50</v>
+      </c>
+      <c r="AM7">
+        <v>50</v>
+      </c>
+      <c r="AO7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2700</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>65</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>200</v>
+      </c>
+      <c r="N8">
+        <v>600</v>
+      </c>
+      <c r="O8">
+        <v>600</v>
+      </c>
+      <c r="P8">
+        <v>700</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>50</v>
+      </c>
+      <c r="AC8">
+        <v>50</v>
+      </c>
+      <c r="AD8">
+        <v>50</v>
+      </c>
+      <c r="AE8">
+        <v>50</v>
+      </c>
+      <c r="AF8">
+        <v>50</v>
+      </c>
+      <c r="AG8">
+        <v>50</v>
+      </c>
+      <c r="AH8">
+        <v>50</v>
+      </c>
+      <c r="AI8">
+        <v>50</v>
+      </c>
+      <c r="AK8">
+        <v>50</v>
+      </c>
+      <c r="AM8">
+        <v>50</v>
+      </c>
+      <c r="AO8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2600</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>150</v>
+      </c>
+      <c r="N9">
+        <v>600</v>
+      </c>
+      <c r="O9">
+        <v>600</v>
+      </c>
+      <c r="P9">
+        <v>700</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <v>50</v>
+      </c>
+      <c r="AC9">
+        <v>50</v>
+      </c>
+      <c r="AD9">
+        <v>50</v>
+      </c>
+      <c r="AE9">
+        <v>50</v>
+      </c>
+      <c r="AF9">
+        <v>50</v>
+      </c>
+      <c r="AG9">
+        <v>50</v>
+      </c>
+      <c r="AH9">
+        <v>50</v>
+      </c>
+      <c r="AI9">
+        <v>50</v>
+      </c>
+      <c r="AJ9">
+        <v>50</v>
+      </c>
+      <c r="AK9">
+        <v>50</v>
+      </c>
+      <c r="AM9">
+        <v>50</v>
+      </c>
+      <c r="AN9">
+        <v>50</v>
+      </c>
+      <c r="AO9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2700</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>65</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>500</v>
+      </c>
+      <c r="O10">
+        <v>600</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>50</v>
+      </c>
+      <c r="AB10">
+        <v>50</v>
+      </c>
+      <c r="AC10">
+        <v>50</v>
+      </c>
+      <c r="AD10">
+        <v>50</v>
+      </c>
+      <c r="AE10">
+        <v>50</v>
+      </c>
+      <c r="AF10">
+        <v>50</v>
+      </c>
+      <c r="AG10">
+        <v>50</v>
+      </c>
+      <c r="AH10">
+        <v>50</v>
+      </c>
+      <c r="AI10">
+        <v>50</v>
+      </c>
+      <c r="AK10">
+        <v>50</v>
+      </c>
+      <c r="AM10">
+        <v>50</v>
+      </c>
+      <c r="AO10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2700</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>200</v>
+      </c>
+      <c r="N11">
+        <v>500</v>
+      </c>
+      <c r="O11">
+        <v>600</v>
+      </c>
+      <c r="P11">
+        <v>500</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>50</v>
+      </c>
+      <c r="AB11">
+        <v>50</v>
+      </c>
+      <c r="AC11">
+        <v>50</v>
+      </c>
+      <c r="AD11">
+        <v>50</v>
+      </c>
+      <c r="AE11">
+        <v>50</v>
+      </c>
+      <c r="AF11">
+        <v>50</v>
+      </c>
+      <c r="AG11">
+        <v>50</v>
+      </c>
+      <c r="AH11">
+        <v>50</v>
+      </c>
+      <c r="AI11">
+        <v>50</v>
+      </c>
+      <c r="AJ11">
+        <v>50</v>
+      </c>
+      <c r="AK11">
+        <v>50</v>
+      </c>
+      <c r="AM11">
+        <v>50</v>
+      </c>
+      <c r="AN11">
+        <v>50</v>
+      </c>
+      <c r="AO11">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
